--- a/data/trans_camb/P16A09-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.466012101868676</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9461998103334688</v>
+        <v>0.9461998103334673</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.216750016328956</v>
@@ -664,7 +664,7 @@
         <v>-3.203627472025075</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.3273794267837554</v>
+        <v>-0.3273794267837568</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.996056395004113</v>
+        <v>-5.034255651222779</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.735761720688074</v>
+        <v>-5.520802440113097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.919594725903775</v>
+        <v>-3.995694141897018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.281977564950204</v>
+        <v>-3.270199110711384</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.672857535278921</v>
+        <v>-4.53729841502617</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.615826690235178</v>
+        <v>-1.618754503692399</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.810796299280885</v>
+        <v>-3.6924616574485</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.738859594622074</v>
+        <v>-4.640746145394028</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.111962283493385</v>
+        <v>-2.045872190827258</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.055804321232842</v>
+        <v>-1.105248767886893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.933341207849411</v>
+        <v>-1.879931535887937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6604397007101681</v>
+        <v>0.8478376816368856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.326375648054072</v>
+        <v>1.286680220246911</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.3152639742401689</v>
+        <v>0.0159612012173113</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.341020913088481</v>
+        <v>3.291589701248341</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.8076610246343674</v>
+        <v>-0.7811867710863942</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.887355502128044</v>
+        <v>-1.752697221137807</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.413518872165951</v>
+        <v>1.385537728337118</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3224900274719542</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1237382422402434</v>
+        <v>0.1237382422402433</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3350607715727708</v>
@@ -769,7 +769,7 @@
         <v>-0.4842268567504354</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.04948325364935453</v>
+        <v>-0.04948325364935473</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7681910998903103</v>
+        <v>-0.7841195179689238</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8409412904825282</v>
+        <v>-0.8592202745915974</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6310338798457488</v>
+        <v>-0.625126886805449</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3671606296352578</v>
+        <v>-0.3590715771199404</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5205200097432966</v>
+        <v>-0.5176360840969921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1927151867126818</v>
+        <v>-0.1833120568678536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4979272124268251</v>
+        <v>-0.4938528499907801</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6168518970423336</v>
+        <v>-0.622504210067419</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2938164743264789</v>
+        <v>-0.276118911243885</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2618533743154338</v>
+        <v>-0.2765742700347174</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4838330896762894</v>
+        <v>-0.5076196833944276</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2199975336247043</v>
+        <v>0.2721824880706887</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1947419973436496</v>
+        <v>0.2047251783707893</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.0436675784959582</v>
+        <v>0.005647244820585727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5177024058508033</v>
+        <v>0.5318588032712238</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1470543099968055</v>
+        <v>-0.1341621832043557</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3174218446354909</v>
+        <v>-0.3094756897004145</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2463543760852647</v>
+        <v>0.2586346305495313</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.361759390770339</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7133747007751274</v>
+        <v>0.7133747007751281</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.560839997481783</v>
+        <v>-2.546136549675</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.720365431364495</v>
+        <v>-2.829312553906331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.617780850530547</v>
+        <v>-1.665687970918141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.258691933604814</v>
+        <v>-1.343557909383524</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.252603917882244</v>
+        <v>-3.322254652223315</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4641254104930942</v>
+        <v>-0.3641474275140916</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.472240865563842</v>
+        <v>-1.419592508578893</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.453041183451186</v>
+        <v>-2.483176148730943</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.449865393883251</v>
+        <v>-0.4585212509246702</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.04025700292654039</v>
+        <v>-0.01548731870147292</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.09493920784304048</v>
+        <v>-0.272137950605957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.051985193309989</v>
+        <v>1.021601974037361</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.473127038335548</v>
+        <v>2.371793234976432</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3647583906803654</v>
+        <v>0.3683720209943915</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.009921423446577</v>
+        <v>3.141916922990363</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.046599644529004</v>
+        <v>0.8503151124609137</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1551949165694484</v>
+        <v>-0.248919739985184</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.762704600187038</v>
+        <v>1.769728187460017</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3606568968774919</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1889346294479549</v>
+        <v>0.1889346294479551</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7286278519218514</v>
+        <v>-0.7367174284645953</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7737256232721279</v>
+        <v>-0.7654358631880052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4602634886546541</v>
+        <v>-0.4684441067641321</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2225541598165583</v>
+        <v>-0.2497576670824273</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5610112787319765</v>
+        <v>-0.5807852656683702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07525562168113896</v>
+        <v>-0.0779268942157075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3350796480032711</v>
+        <v>-0.3316234368618843</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5647872017466745</v>
+        <v>-0.5716170221624471</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1116069048768445</v>
+        <v>-0.1086063127221699</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.009529120750236927</v>
+        <v>0.01421417455677321</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0286962020078152</v>
+        <v>-0.05121372437862946</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4960014695968581</v>
+        <v>0.494933046587865</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6582157180643909</v>
+        <v>0.6119705869956582</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09934854472868622</v>
+        <v>0.1107584495870298</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7981458540587291</v>
+        <v>0.8104712663351469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3245099320547239</v>
+        <v>0.2557506745403454</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03620596761087651</v>
+        <v>-0.05332649943850853</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5550865077261842</v>
+        <v>0.5457055545843136</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.1793713373950789</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4670876148331001</v>
+        <v>0.4670876148331011</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.772379961364403</v>
+        <v>-0.7682602442498181</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.474182443219013</v>
+        <v>-1.40595411904011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.606752888524753</v>
+        <v>-1.516223851598098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01534555217814602</v>
+        <v>0.06974184090096031</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.716614166677104</v>
+        <v>-1.696428593595052</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1892731995040858</v>
+        <v>-0.2033096937684495</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0830718746150928</v>
+        <v>0.1325254588005451</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.136382869637247</v>
+        <v>-1.136539120888082</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3929520855704847</v>
+        <v>-0.3704148134927384</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.691009481716062</v>
+        <v>1.552404857378855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7627624890256824</v>
+        <v>0.6449051846938173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1729651499345797</v>
+        <v>0.3312794264732274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.157538943179898</v>
+        <v>3.879889819066365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.747876397865647</v>
+        <v>1.856335282471254</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.112249596636367</v>
+        <v>3.158283458234496</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.325285822021188</v>
+        <v>2.529590803693364</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9289938495691858</v>
+        <v>0.8964489977914177</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.428216720858094</v>
+        <v>1.362301735891728</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.0737708493458747</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1921012050508462</v>
+        <v>0.1921012050508466</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3899074678740826</v>
+        <v>-0.4120644362868286</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7100765295809427</v>
+        <v>-0.6899922037374576</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7152315474617317</v>
+        <v>-0.7115588182665875</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.008554167896426478</v>
+        <v>-0.002155809499352429</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4156113423555877</v>
+        <v>-0.4282762571211565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05737341004291227</v>
+        <v>-0.07701798348439928</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03013920379806535</v>
+        <v>0.03992915194378556</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3967421815279769</v>
+        <v>-0.4049634414629474</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1371024508694094</v>
+        <v>-0.128910919428111</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.435394814961166</v>
+        <v>1.407794979836535</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7156211990787148</v>
+        <v>0.6563954236377446</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2489909006019947</v>
+        <v>0.3939572192899791</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.667596358179864</v>
+        <v>1.521792983781382</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.701262824869836</v>
+        <v>0.7412494178946405</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.299466859557423</v>
+        <v>1.216240439066663</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.200612272413533</v>
+        <v>1.202378852843884</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4844563335957632</v>
+        <v>0.4562402239514791</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7590358181549697</v>
+        <v>0.6964038583739124</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.076784724769155</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.201457228448546</v>
+        <v>-1.201457228448547</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.296820109936682</v>
+        <v>-3.378118635567203</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.979286681078633</v>
+        <v>-5.004450524716689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.940821875734032</v>
+        <v>-4.719489457145651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2658578069313582</v>
+        <v>0.1778298629150603</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.902901296780776</v>
+        <v>-3.79043811878615</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.535237703370302</v>
+        <v>-2.361585251238369</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8711726156160764</v>
+        <v>-0.6824712742338608</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.916586284747751</v>
+        <v>-4.011692209693067</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.948643312491025</v>
+        <v>-2.784894775490339</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.146862986924315</v>
+        <v>1.869615012366012</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5470697653305514</v>
+        <v>-0.683264170568597</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.5723089534148134</v>
+        <v>-0.5508818602343255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.636457207937736</v>
+        <v>6.458175589760133</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4721655541282149</v>
+        <v>0.7814678590835851</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.833102945109546</v>
+        <v>1.944014223369203</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.187747702625929</v>
+        <v>3.30810299109426</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.7062031420537035</v>
+        <v>-0.5811836135345565</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1146945264957434</v>
+        <v>0.1151813599313253</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.597102742611793</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3454346508240675</v>
+        <v>-0.3454346508240678</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6376342538197703</v>
+        <v>-0.6456814749550389</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9019669605036171</v>
+        <v>-0.904004249712279</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8093177601093243</v>
+        <v>-0.8215034266703097</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.003010383979478283</v>
+        <v>-0.04261313213408708</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8220738679414894</v>
+        <v>-0.8314423659693926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.494287775467146</v>
+        <v>-0.4737994876565617</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2125673860995549</v>
+        <v>-0.1653389079924139</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8069644222793226</v>
+        <v>-0.8189593627239841</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5987215515654014</v>
+        <v>-0.5905426443631804</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8899392045781673</v>
+        <v>0.739890536205161</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.05200500566849202</v>
+        <v>-0.06391280700621013</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1918152915064315</v>
+        <v>-0.1770949466588939</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.191489696507402</v>
+        <v>4.076112735827311</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4200090204868501</v>
+        <v>0.62892550363919</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.233078549681097</v>
+        <v>1.180359931204339</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.230504189684676</v>
+        <v>1.315089406401754</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2278151106950643</v>
+        <v>-0.1048752465813916</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05348090196029528</v>
+        <v>0.0555703602962757</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-1.159135674328842</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.5115012850135832</v>
+        <v>0.5115012850135825</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.01807746623333772</v>
@@ -1520,7 +1520,7 @@
         <v>-1.383414795502332</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.2338730739957336</v>
+        <v>-0.2338730739957343</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.67431120869522</v>
+        <v>-1.685985093201716</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.357826460319556</v>
+        <v>-2.378621384964345</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.783381592645133</v>
+        <v>-1.764373431375272</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1862258345583975</v>
+        <v>-0.1842343234209622</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.218667627775782</v>
+        <v>-2.295746517848706</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.5802739720278091</v>
+        <v>-0.5513216027631647</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.687592930868682</v>
+        <v>-0.6232199225865188</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.000759905707993</v>
+        <v>-2.037720366901566</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8822694201924846</v>
+        <v>-0.7893304315884548</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1119689150872508</v>
+        <v>-0.1202646813248474</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.972429531148209</v>
+        <v>-1.020388788940839</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.3441200995797845</v>
+        <v>-0.3313093952780311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.085350035721537</v>
+        <v>1.93689315775949</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.1889735140976361</v>
+        <v>-0.1266345717285669</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.45514324985979</v>
+        <v>1.495277299511645</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6944580277211186</v>
+        <v>0.7529149355623692</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7641979473780554</v>
+        <v>-0.7633831235009445</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3818265193248868</v>
+        <v>0.3433741519277126</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2345302127353049</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1034930662953478</v>
+        <v>0.1034930662953476</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.004565769547003889</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3494047817680776</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05906859652403581</v>
+        <v>-0.05906859652403598</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.495503668078361</v>
+        <v>-0.5008981492948004</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6921994461493477</v>
+        <v>-0.697556586558806</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.527698926157567</v>
+        <v>-0.5250552192352718</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03545053262100208</v>
+        <v>-0.03393095286606367</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4023240491727065</v>
+        <v>-0.4131637905072028</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.10321368123187</v>
+        <v>-0.100230046843022</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.160082444353643</v>
+        <v>-0.1450199648470261</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4657903000984695</v>
+        <v>-0.4583013713372264</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2024796926476175</v>
+        <v>-0.1829378439331595</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.03780495128608134</v>
+        <v>-0.03270083058761943</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3739833234549965</v>
+        <v>-0.3785199160955747</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1331458730390415</v>
+        <v>-0.1254430057974688</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.48252613771971</v>
+        <v>0.4430986940052289</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04125469965993341</v>
+        <v>-0.02663270588937315</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3343297866668963</v>
+        <v>0.3356002410574979</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1953591409820756</v>
+        <v>0.2005038178329591</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2112448279219815</v>
+        <v>-0.2080490879947769</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1042068513867295</v>
+        <v>0.09947760974967097</v>
       </c>
     </row>
     <row r="34">
